--- a/teaching/traditional_assets/database/data/tunisia/tunisia_food_wholesalers.xlsx
+++ b/teaching/traditional_assets/database/data/tunisia/tunisia_food_wholesalers.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.07519999999999999</v>
+        <v>0.09119999999999999</v>
       </c>
       <c r="E2">
-        <v>0.207</v>
+        <v>0.227</v>
       </c>
       <c r="G2">
-        <v>0.29490022172949</v>
+        <v>0.4047151277013752</v>
       </c>
       <c r="H2">
-        <v>0.29490022172949</v>
+        <v>0.4047151277013752</v>
       </c>
       <c r="I2">
-        <v>0.2394678492239468</v>
+        <v>0.3025540275049116</v>
       </c>
       <c r="J2">
-        <v>0.1763594712792934</v>
+        <v>0.2306483300589391</v>
       </c>
       <c r="K2">
-        <v>1.34</v>
+        <v>1.76</v>
       </c>
       <c r="L2">
-        <v>0.2971175166297118</v>
+        <v>0.3457760314341847</v>
       </c>
       <c r="M2">
-        <v>0.459</v>
+        <v>0.507</v>
       </c>
       <c r="N2">
-        <v>0.04098214285714286</v>
+        <v>0.0325</v>
       </c>
       <c r="O2">
-        <v>0.3425373134328358</v>
+        <v>0.2880681818181818</v>
       </c>
       <c r="P2">
-        <v>0.459</v>
+        <v>0.507</v>
       </c>
       <c r="Q2">
-        <v>0.04098214285714286</v>
+        <v>0.0325</v>
       </c>
       <c r="R2">
-        <v>0.3425373134328358</v>
+        <v>0.2880681818181818</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,31 +639,31 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.636</v>
+        <v>0.841</v>
       </c>
       <c r="V2">
-        <v>0.05678571428571429</v>
+        <v>0.05391025641025641</v>
       </c>
       <c r="W2">
-        <v>0.1618357487922706</v>
+        <v>0.2117930204572804</v>
       </c>
       <c r="X2">
-        <v>0.07430268739680493</v>
+        <v>0.06373606207847107</v>
       </c>
       <c r="Y2">
-        <v>0.08753306139546563</v>
+        <v>0.1480569583788093</v>
       </c>
       <c r="Z2">
-        <v>0.5949083234401794</v>
+        <v>0.6632786030753192</v>
       </c>
       <c r="AA2">
-        <v>0.1049177173815609</v>
+        <v>0.1529841021631483</v>
       </c>
       <c r="AB2">
-        <v>0.07430268739680493</v>
+        <v>0.06373606207847107</v>
       </c>
       <c r="AC2">
-        <v>0.030615029984756</v>
+        <v>0.08924804008467721</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-0.636</v>
+        <v>-0.841</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -684,25 +684,25 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.06020446800454374</v>
+        <v>-0.05698218036452334</v>
       </c>
       <c r="AK2">
-        <v>-0.08287724784988272</v>
+        <v>-0.09083054325521114</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-0.445</v>
+        <v>-0.6919999999999999</v>
       </c>
       <c r="AN2">
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>-0.4076923076923077</v>
+        <v>-0.4247474747474748</v>
       </c>
       <c r="AQ2">
-        <v>-2.426966292134832</v>
+        <v>-2.225433526011561</v>
       </c>
     </row>
     <row r="3">
@@ -722,46 +722,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.07519999999999999</v>
+        <v>0.09119999999999999</v>
       </c>
       <c r="E3">
-        <v>0.207</v>
+        <v>0.227</v>
       </c>
       <c r="G3">
-        <v>0.29490022172949</v>
+        <v>0.4047151277013752</v>
       </c>
       <c r="H3">
-        <v>0.29490022172949</v>
+        <v>0.4047151277013752</v>
       </c>
       <c r="I3">
-        <v>0.2394678492239468</v>
+        <v>0.3025540275049116</v>
       </c>
       <c r="J3">
-        <v>0.1763594712792934</v>
+        <v>0.2306483300589391</v>
       </c>
       <c r="K3">
-        <v>1.34</v>
+        <v>1.76</v>
       </c>
       <c r="L3">
-        <v>0.2971175166297118</v>
+        <v>0.3457760314341847</v>
       </c>
       <c r="M3">
-        <v>0.459</v>
+        <v>0.507</v>
       </c>
       <c r="N3">
-        <v>0.04098214285714286</v>
+        <v>0.0325</v>
       </c>
       <c r="O3">
-        <v>0.3425373134328358</v>
+        <v>0.2880681818181818</v>
       </c>
       <c r="P3">
-        <v>0.459</v>
+        <v>0.507</v>
       </c>
       <c r="Q3">
-        <v>0.04098214285714286</v>
+        <v>0.0325</v>
       </c>
       <c r="R3">
-        <v>0.3425373134328358</v>
+        <v>0.2880681818181818</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -770,31 +770,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.636</v>
+        <v>0.841</v>
       </c>
       <c r="V3">
-        <v>0.05678571428571429</v>
+        <v>0.05391025641025641</v>
       </c>
       <c r="W3">
-        <v>0.1618357487922706</v>
+        <v>0.2117930204572804</v>
       </c>
       <c r="X3">
-        <v>0.07430268739680493</v>
+        <v>0.06373606207847107</v>
       </c>
       <c r="Y3">
-        <v>0.08753306139546563</v>
+        <v>0.1480569583788093</v>
       </c>
       <c r="Z3">
-        <v>0.5949083234401794</v>
+        <v>0.6632786030753192</v>
       </c>
       <c r="AA3">
-        <v>0.1049177173815609</v>
+        <v>0.1529841021631483</v>
       </c>
       <c r="AB3">
-        <v>0.07430268739680493</v>
+        <v>0.06373606207847107</v>
       </c>
       <c r="AC3">
-        <v>0.030615029984756</v>
+        <v>0.08924804008467721</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.636</v>
+        <v>-0.841</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -815,25 +815,25 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.06020446800454374</v>
+        <v>-0.05698218036452334</v>
       </c>
       <c r="AK3">
-        <v>-0.08287724784988272</v>
+        <v>-0.09083054325521114</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.445</v>
+        <v>-0.6919999999999999</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>-0.4076923076923077</v>
+        <v>-0.4247474747474748</v>
       </c>
       <c r="AQ3">
-        <v>-2.426966292134832</v>
+        <v>-2.225433526011561</v>
       </c>
     </row>
   </sheetData>
